--- a/Code/Results/Cases/Case_1_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7708275057142941</v>
+        <v>0.2777502099621358</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.266446605538619</v>
+        <v>0.2504953273003991</v>
       </c>
       <c r="E2">
-        <v>1.187442482492457</v>
+        <v>0.3115690176358896</v>
       </c>
       <c r="F2">
-        <v>17.58766977865531</v>
+        <v>4.126984139852311</v>
       </c>
       <c r="G2">
-        <v>0.0005009039153118071</v>
+        <v>0.002377862666829956</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8296711555016145</v>
+        <v>0.5452418327394497</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.97199380541809</v>
+        <v>2.979882302059451</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6663356204902584</v>
+        <v>0.2443796282475432</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9467020962963488</v>
+        <v>0.2250659246027169</v>
       </c>
       <c r="E3">
-        <v>0.9794928366294471</v>
+        <v>0.2722894332744659</v>
       </c>
       <c r="F3">
-        <v>13.39735539540482</v>
+        <v>3.756824166050166</v>
       </c>
       <c r="G3">
-        <v>0.0005569489108311578</v>
+        <v>0.00239504991606296</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.75072116351933</v>
+        <v>0.5233867455302814</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.625998330219602</v>
+        <v>2.622754573932099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.603308080042865</v>
+        <v>0.223813822989797</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7981888703086781</v>
+        <v>0.2098915381554036</v>
       </c>
       <c r="E4">
-        <v>0.8702742311707397</v>
+        <v>0.2481254865370346</v>
       </c>
       <c r="F4">
-        <v>11.41164205084678</v>
+        <v>3.535644766364783</v>
       </c>
       <c r="G4">
-        <v>0.0005863337254928922</v>
+        <v>0.002406064203868226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7041448295533712</v>
+        <v>0.5104300635956704</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.424917912740028</v>
+        <v>2.4046568281438</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.577817570689092</v>
+        <v>0.2154142157494334</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.744361072727969</v>
+        <v>0.2038110996902844</v>
       </c>
       <c r="E5">
-        <v>0.8282268096961474</v>
+        <v>0.2382656506253227</v>
       </c>
       <c r="F5">
-        <v>10.68519865892651</v>
+        <v>3.446956662512946</v>
       </c>
       <c r="G5">
-        <v>0.0005976601144389676</v>
+        <v>0.002410669711757161</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6856499038037143</v>
+        <v>0.5052664829403568</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.969202230464617</v>
+        <v>2.316044809461829</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.573594633285353</v>
+        <v>0.2140183361592278</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7357404406092485</v>
+        <v>0.2028074770275623</v>
       </c>
       <c r="E6">
-        <v>0.821358891049897</v>
+        <v>0.2366276232479407</v>
       </c>
       <c r="F6">
-        <v>10.56850916308423</v>
+        <v>3.432314745880888</v>
       </c>
       <c r="G6">
-        <v>0.0005995117690512078</v>
+        <v>0.00241144155740907</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6826070939674267</v>
+        <v>0.5044161074333218</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.895132685473357</v>
+        <v>2.301345920662698</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6029636136543388</v>
+        <v>0.223700618983429</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7974400337982104</v>
+        <v>0.2098091265554558</v>
       </c>
       <c r="E7">
-        <v>0.8696988826140739</v>
+        <v>0.2479925668558849</v>
       </c>
       <c r="F7">
-        <v>11.40156132151304</v>
+        <v>3.534442955686416</v>
       </c>
       <c r="G7">
-        <v>0.0005864886146126001</v>
+        <v>0.002406125839903137</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.703893479445</v>
+        <v>0.5103599543609718</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.418656455338322</v>
+        <v>2.403460745581043</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7344926528847679</v>
+        <v>0.266259973571465</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.141126243056277</v>
+        <v>0.2416316310054185</v>
       </c>
       <c r="E8">
-        <v>1.109762938641666</v>
+        <v>0.2980342055195564</v>
       </c>
       <c r="F8">
-        <v>15.95849641730723</v>
+        <v>3.998031708898964</v>
       </c>
       <c r="G8">
-        <v>0.0005218653830385926</v>
+        <v>0.002383693778048779</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8021023981731545</v>
+        <v>0.5376102371521085</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.08803770221616</v>
+        <v>2.856479783075486</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7344926528847679</v>
+        <v>0.3491090467171034</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.141126243056277</v>
+        <v>0.3078641449245936</v>
       </c>
       <c r="E9">
-        <v>1.109762938641666</v>
+        <v>0.3958651562032003</v>
       </c>
       <c r="F9">
-        <v>15.95849641730723</v>
+        <v>4.959786845367205</v>
       </c>
       <c r="G9">
-        <v>0.0005218653830385926</v>
+        <v>0.00234331229813355</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8021023981731545</v>
+        <v>0.5947221873233417</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.08803770221616</v>
+        <v>3.755782241541851</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7344926528847679</v>
+        <v>0.4096083368302743</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.141126243056277</v>
+        <v>0.3593597361082459</v>
       </c>
       <c r="E10">
-        <v>1.109762938641666</v>
+        <v>0.4676639709119002</v>
       </c>
       <c r="F10">
-        <v>15.95849641730723</v>
+        <v>5.704725183196729</v>
       </c>
       <c r="G10">
-        <v>0.0005218653830385926</v>
+        <v>0.002315768223600634</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8021023981731545</v>
+        <v>0.6389425668534727</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11.08803770221616</v>
+        <v>4.425525274613022</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7344926528847679</v>
+        <v>0.4370524511855365</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.141126243056277</v>
+        <v>0.3835185285007867</v>
       </c>
       <c r="E11">
-        <v>1.109762938641666</v>
+        <v>0.5003363318206624</v>
       </c>
       <c r="F11">
-        <v>15.95849641730723</v>
+        <v>6.053395305479796</v>
       </c>
       <c r="G11">
-        <v>0.0005218653830385926</v>
+        <v>0.002303681874775688</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8021023981731545</v>
+        <v>0.6595572961037419</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>11.08803770221616</v>
+        <v>4.73272706042539</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7344926528847679</v>
+        <v>0.4474337798069996</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.141126243056277</v>
+        <v>0.3927824466056506</v>
       </c>
       <c r="E12">
-        <v>1.109762938641666</v>
+        <v>0.5127122600038945</v>
       </c>
       <c r="F12">
-        <v>15.95849641730723</v>
+        <v>6.186962634997428</v>
       </c>
       <c r="G12">
-        <v>0.0005218653830385926</v>
+        <v>0.002299167437556242</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8021023981731545</v>
+        <v>0.6674358625538304</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11.08803770221616</v>
+        <v>4.849468714344511</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7344926528847679</v>
+        <v>0.4451984715187223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.141126243056277</v>
+        <v>0.3907819922666818</v>
       </c>
       <c r="E13">
-        <v>1.109762938641666</v>
+        <v>0.5100466866984448</v>
       </c>
       <c r="F13">
-        <v>15.95849641730723</v>
+        <v>6.158126247283633</v>
       </c>
       <c r="G13">
-        <v>0.0005218653830385926</v>
+        <v>0.00230013694971491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8021023981731545</v>
+        <v>0.665735851163987</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11.08803770221616</v>
+        <v>4.824307252228465</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7344926528847679</v>
+        <v>0.4379067531076828</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.141126243056277</v>
+        <v>0.3842783019154297</v>
       </c>
       <c r="E14">
-        <v>1.109762938641666</v>
+        <v>0.5013544219129642</v>
       </c>
       <c r="F14">
-        <v>15.95849641730723</v>
+        <v>6.064352493581055</v>
       </c>
       <c r="G14">
-        <v>0.0005218653830385926</v>
+        <v>0.00230330922692873</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8021023981731545</v>
+        <v>0.6602040198724382</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>11.08803770221616</v>
+        <v>4.742322950202521</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7344926528847679</v>
+        <v>0.4334389110081531</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.141126243056277</v>
+        <v>0.3803099550984541</v>
       </c>
       <c r="E15">
-        <v>1.109762938641666</v>
+        <v>0.4960306940961487</v>
       </c>
       <c r="F15">
-        <v>15.95849641730723</v>
+        <v>6.007116908085038</v>
       </c>
       <c r="G15">
-        <v>0.0005218653830385926</v>
+        <v>0.002305260422346025</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8021023981731545</v>
+        <v>0.6568250351702858</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.08803770221616</v>
+        <v>4.692160165238107</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7344926528847679</v>
+        <v>0.4078132386920856</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.141126243056277</v>
+        <v>0.3577965043120059</v>
       </c>
       <c r="E16">
-        <v>1.109762938641666</v>
+        <v>0.4655291440028861</v>
       </c>
       <c r="F16">
-        <v>15.95849641730723</v>
+        <v>5.682146388557669</v>
       </c>
       <c r="G16">
-        <v>0.0005218653830385926</v>
+        <v>0.002316566903839923</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8021023981731545</v>
+        <v>0.6376054210648334</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>11.08803770221616</v>
+        <v>4.405503809860988</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7344926528847679</v>
+        <v>0.3920728687720043</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.141126243056277</v>
+        <v>0.3441800113659497</v>
       </c>
       <c r="E17">
-        <v>1.109762938641666</v>
+        <v>0.4468215939502755</v>
       </c>
       <c r="F17">
-        <v>15.95849641730723</v>
+        <v>5.485382812812304</v>
       </c>
       <c r="G17">
-        <v>0.0005218653830385926</v>
+        <v>0.002323615709730847</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8021023981731545</v>
+        <v>0.6259428553642152</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>11.08803770221616</v>
+        <v>4.230330414746675</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7344926528847679</v>
+        <v>0.383012146370362</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.141126243056277</v>
+        <v>0.3364165401638672</v>
       </c>
       <c r="E18">
-        <v>1.109762938641666</v>
+        <v>0.4360623801348567</v>
       </c>
       <c r="F18">
-        <v>15.95849641730723</v>
+        <v>5.373123558506393</v>
       </c>
       <c r="G18">
-        <v>0.0005218653830385926</v>
+        <v>0.002327711835398992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8021023981731545</v>
+        <v>0.6192817544993261</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>11.08803770221616</v>
+        <v>4.129810685543902</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7344926528847679</v>
+        <v>0.3799430936331589</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.141126243056277</v>
+        <v>0.3337994078949009</v>
       </c>
       <c r="E19">
-        <v>1.109762938641666</v>
+        <v>0.4324195851671817</v>
       </c>
       <c r="F19">
-        <v>15.95849641730723</v>
+        <v>5.335267776282762</v>
       </c>
       <c r="G19">
-        <v>0.0005218653830385926</v>
+        <v>0.002329105940326385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8021023981731545</v>
+        <v>0.6170344613623655</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>11.08803770221616</v>
+        <v>4.09581547886134</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7344926528847679</v>
+        <v>0.3937492117403565</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.141126243056277</v>
+        <v>0.3456223625037183</v>
       </c>
       <c r="E20">
-        <v>1.109762938641666</v>
+        <v>0.4488129396845153</v>
       </c>
       <c r="F20">
-        <v>15.95849641730723</v>
+        <v>5.506233156774101</v>
       </c>
       <c r="G20">
-        <v>0.0005218653830385926</v>
+        <v>0.002322861031921812</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8021023981731545</v>
+        <v>0.6271794982463348</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>11.08803770221616</v>
+        <v>4.248953231403021</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7344926528847679</v>
+        <v>0.4400488105831073</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.141126243056277</v>
+        <v>0.3861853754267202</v>
       </c>
       <c r="E21">
-        <v>1.109762938641666</v>
+        <v>0.5039074352543906</v>
       </c>
       <c r="F21">
-        <v>15.95849641730723</v>
+        <v>6.09185346576038</v>
       </c>
       <c r="G21">
-        <v>0.0005218653830385926</v>
+        <v>0.002302375770001725</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8021023981731545</v>
+        <v>0.6618268882764085</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.08803770221616</v>
+        <v>4.766392183978951</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7344926528847679</v>
+        <v>0.4702432314070109</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.141126243056277</v>
+        <v>0.4133740116275817</v>
       </c>
       <c r="E22">
-        <v>1.109762938641666</v>
+        <v>0.5399370367379248</v>
       </c>
       <c r="F22">
-        <v>15.95849641730723</v>
+        <v>6.483592040260305</v>
       </c>
       <c r="G22">
-        <v>0.0005218653830385926</v>
+        <v>0.002289350500272293</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8021023981731545</v>
+        <v>0.6848922070092414</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>11.08803770221616</v>
+        <v>5.10698805789562</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7344926528847679</v>
+        <v>0.4541338533372539</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.141126243056277</v>
+        <v>0.3987973739424433</v>
       </c>
       <c r="E23">
-        <v>1.109762938641666</v>
+        <v>0.5207045984905818</v>
       </c>
       <c r="F23">
-        <v>15.95849641730723</v>
+        <v>6.273646874802296</v>
       </c>
       <c r="G23">
-        <v>0.0005218653830385926</v>
+        <v>0.002296269588316413</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8021023981731545</v>
+        <v>0.6725430704706667</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>11.08803770221616</v>
+        <v>4.924967953460794</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7344926528847679</v>
+        <v>0.3929913725079928</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.141126243056277</v>
+        <v>0.3449700743720996</v>
       </c>
       <c r="E24">
-        <v>1.109762938641666</v>
+        <v>0.4479126648730585</v>
       </c>
       <c r="F24">
-        <v>15.95849641730723</v>
+        <v>5.496804038388632</v>
       </c>
       <c r="G24">
-        <v>0.0005218653830385926</v>
+        <v>0.002323202085453866</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8021023981731545</v>
+        <v>0.6266202754112413</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>11.08803770221616</v>
+        <v>4.240533268349168</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7344926528847679</v>
+        <v>0.3267614471486695</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.141126243056277</v>
+        <v>0.2894864509197248</v>
       </c>
       <c r="E25">
-        <v>1.109762938641666</v>
+        <v>0.3694210707617458</v>
       </c>
       <c r="F25">
-        <v>15.95849641730723</v>
+        <v>4.693344394412577</v>
       </c>
       <c r="G25">
-        <v>0.0005218653830385926</v>
+        <v>0.002353857934078113</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8021023981731545</v>
+        <v>0.5788768376679911</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.08803770221616</v>
+        <v>3.511091153429419</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2777502099621358</v>
+        <v>0.7708275057140668</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2504953273003991</v>
+        <v>1.266446605538363</v>
       </c>
       <c r="E2">
-        <v>0.3115690176358896</v>
+        <v>1.187442482492472</v>
       </c>
       <c r="F2">
-        <v>4.126984139852311</v>
+        <v>17.58766977865565</v>
       </c>
       <c r="G2">
-        <v>0.002377862666829956</v>
+        <v>0.0005009039154467439</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5452418327394497</v>
+        <v>0.8296711555016003</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.979882302059451</v>
+        <v>11.97199380541829</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2443796282475432</v>
+        <v>0.666335620490031</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2250659246027169</v>
+        <v>0.9467020962961499</v>
       </c>
       <c r="E3">
-        <v>0.2722894332744659</v>
+        <v>0.9794928366294755</v>
       </c>
       <c r="F3">
-        <v>3.756824166050166</v>
+        <v>13.39735539540493</v>
       </c>
       <c r="G3">
-        <v>0.00239504991606296</v>
+        <v>0.0005569489110745137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5233867455302814</v>
+        <v>0.7507211635193229</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.622754573932099</v>
+        <v>9.62599833021963</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.223813822989797</v>
+        <v>0.6033080800429218</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2098915381554036</v>
+        <v>0.7981888703087634</v>
       </c>
       <c r="E4">
-        <v>0.2481254865370346</v>
+        <v>0.8702742311707397</v>
       </c>
       <c r="F4">
-        <v>3.535644766364783</v>
+        <v>11.4116420508465</v>
       </c>
       <c r="G4">
-        <v>0.002406064203868226</v>
+        <v>0.0005863337255985349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5104300635956704</v>
+        <v>0.7041448295533925</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.4046568281438</v>
+        <v>8.424917912739943</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2154142157494334</v>
+        <v>0.577817570689092</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2038110996902844</v>
+        <v>0.7443610727280259</v>
       </c>
       <c r="E5">
-        <v>0.2382656506253227</v>
+        <v>0.8282268096961474</v>
       </c>
       <c r="F5">
-        <v>3.446956662512946</v>
+        <v>10.68519865892631</v>
       </c>
       <c r="G5">
-        <v>0.002410669711757161</v>
+        <v>0.0005976601144611689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5052664829403568</v>
+        <v>0.6856499038037427</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.316044809461829</v>
+        <v>7.969202230464504</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2140183361592278</v>
+        <v>0.5735946332851825</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2028074770275623</v>
+        <v>0.7357404406096748</v>
       </c>
       <c r="E6">
-        <v>0.2366276232479407</v>
+        <v>0.8213588910498544</v>
       </c>
       <c r="F6">
-        <v>3.432314745880888</v>
+        <v>10.56850916308423</v>
       </c>
       <c r="G6">
-        <v>0.00241144155740907</v>
+        <v>0.0005995117692588228</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5044161074333218</v>
+        <v>0.6826070939674693</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.301345920662698</v>
+        <v>7.895132685473271</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.223700618983429</v>
+        <v>0.6029636136545378</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2098091265554558</v>
+        <v>0.797440033797983</v>
       </c>
       <c r="E7">
-        <v>0.2479925668558849</v>
+        <v>0.8696988826141023</v>
       </c>
       <c r="F7">
-        <v>3.534442955686416</v>
+        <v>11.40156132151316</v>
       </c>
       <c r="G7">
-        <v>0.002406125839903137</v>
+        <v>0.0005864886143844839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5103599543609718</v>
+        <v>0.7038934794450142</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.403460745581043</v>
+        <v>8.418656455338294</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.266259973571465</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2416316310054185</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E8">
-        <v>0.2980342055195564</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F8">
-        <v>3.998031708898964</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G8">
-        <v>0.002383693778048779</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5376102371521085</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.856479783075486</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3491090467171034</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3078641449245936</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E9">
-        <v>0.3958651562032003</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F9">
-        <v>4.959786845367205</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G9">
-        <v>0.00234331229813355</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5947221873233417</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.755782241541851</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4096083368302743</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3593597361082459</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E10">
-        <v>0.4676639709119002</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F10">
-        <v>5.704725183196729</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G10">
-        <v>0.002315768223600634</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6389425668534727</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.425525274613022</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4370524511855365</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3835185285007867</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E11">
-        <v>0.5003363318206624</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F11">
-        <v>6.053395305479796</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G11">
-        <v>0.002303681874775688</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6595572961037419</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.73272706042539</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4474337798069996</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3927824466056506</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E12">
-        <v>0.5127122600038945</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F12">
-        <v>6.186962634997428</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G12">
-        <v>0.002299167437556242</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6674358625538304</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.849468714344511</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4451984715187223</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3907819922666818</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E13">
-        <v>0.5100466866984448</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F13">
-        <v>6.158126247283633</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G13">
-        <v>0.00230013694971491</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.665735851163987</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.824307252228465</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4379067531076828</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3842783019154297</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E14">
-        <v>0.5013544219129642</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F14">
-        <v>6.064352493581055</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G14">
-        <v>0.00230330922692873</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6602040198724382</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.742322950202521</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4334389110081531</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3803099550984541</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E15">
-        <v>0.4960306940961487</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F15">
-        <v>6.007116908085038</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G15">
-        <v>0.002305260422346025</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6568250351702858</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.692160165238107</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4078132386920856</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3577965043120059</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E16">
-        <v>0.4655291440028861</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F16">
-        <v>5.682146388557669</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G16">
-        <v>0.002316566903839923</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6376054210648334</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.405503809860988</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3920728687720043</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3441800113659497</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E17">
-        <v>0.4468215939502755</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F17">
-        <v>5.485382812812304</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G17">
-        <v>0.002323615709730847</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6259428553642152</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.230330414746675</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.383012146370362</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3364165401638672</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E18">
-        <v>0.4360623801348567</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F18">
-        <v>5.373123558506393</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G18">
-        <v>0.002327711835398992</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6192817544993261</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.129810685543902</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3799430936331589</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3337994078949009</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E19">
-        <v>0.4324195851671817</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F19">
-        <v>5.335267776282762</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G19">
-        <v>0.002329105940326385</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6170344613623655</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.09581547886134</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3937492117403565</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3456223625037183</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E20">
-        <v>0.4488129396845153</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F20">
-        <v>5.506233156774101</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G20">
-        <v>0.002322861031921812</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6271794982463348</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.248953231403021</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4400488105831073</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3861853754267202</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E21">
-        <v>0.5039074352543906</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F21">
-        <v>6.09185346576038</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G21">
-        <v>0.002302375770001725</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6618268882764085</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.766392183978951</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4702432314070109</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4133740116275817</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E22">
-        <v>0.5399370367379248</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F22">
-        <v>6.483592040260305</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G22">
-        <v>0.002289350500272293</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6848922070092414</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.10698805789562</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4541338533372539</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3987973739424433</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E23">
-        <v>0.5207045984905818</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F23">
-        <v>6.273646874802296</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G23">
-        <v>0.002296269588316413</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6725430704706667</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.924967953460794</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3929913725079928</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3449700743720996</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E24">
-        <v>0.4479126648730585</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F24">
-        <v>5.496804038388632</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G24">
-        <v>0.002323202085453866</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6266202754112413</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.240533268349168</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3267614471486695</v>
+        <v>0.7344926528846827</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2894864509197248</v>
+        <v>1.141126243056107</v>
       </c>
       <c r="E25">
-        <v>0.3694210707617458</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F25">
-        <v>4.693344394412577</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G25">
-        <v>0.002353857934078113</v>
+        <v>0.0005218653830102644</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5788768376679911</v>
+        <v>0.8021023981731261</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.511091153429419</v>
+        <v>11.08803770221618</v>
       </c>
       <c r="N25">
         <v>0</v>
